--- a/AccountTesting.xlsx
+++ b/AccountTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B43D4-5C4C-497B-9B54-29A458D48AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E028B2-60D2-4ADD-B380-93879D0B4458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -185,13 +185,19 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Input valid Value in the Account Number fields</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the Account Number field.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -201,6 +207,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -252,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0">
-  <autoFilter ref="A1:J16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J17" totalsRowShown="0">
+  <autoFilter ref="A1:J17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -555,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,112 +666,112 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -768,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -779,78 +790,93 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>49</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>52</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
